--- a/1-constructive-heuristics/results/VRPTW_tm_GRASP.xlsx
+++ b/1-constructive-heuristics/results/VRPTW_tm_GRASP.xlsx
@@ -446,7 +446,7 @@
         <v>259.744</v>
       </c>
       <c r="C1" t="n">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
@@ -706,7 +706,7 @@
         <v>1124.526</v>
       </c>
       <c r="C1" t="n">
-        <v>658</v>
+        <v>686</v>
       </c>
     </row>
     <row r="2">
@@ -1116,7 +1116,7 @@
         <v>1095.061</v>
       </c>
       <c r="C1" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2">
@@ -1626,7 +1626,7 @@
         <v>1032.763</v>
       </c>
       <c r="C1" t="n">
-        <v>501</v>
+        <v>482</v>
       </c>
     </row>
     <row r="2">
@@ -2076,7 +2076,7 @@
         <v>1678.45</v>
       </c>
       <c r="C1" t="n">
-        <v>1608</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="2">
@@ -3026,7 +3026,7 @@
         <v>1343.666</v>
       </c>
       <c r="C1" t="n">
-        <v>2294</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="2">
@@ -3796,7 +3796,7 @@
         <v>1973.364</v>
       </c>
       <c r="C1" t="n">
-        <v>1495</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="2">
@@ -4866,7 +4866,7 @@
         <v>1833.461</v>
       </c>
       <c r="C1" t="n">
-        <v>2799</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="2">
@@ -5636,7 +5636,7 @@
         <v>2106.481</v>
       </c>
       <c r="C1" t="n">
-        <v>1625</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="2">
@@ -6626,7 +6626,7 @@
         <v>1725.319</v>
       </c>
       <c r="C1" t="n">
-        <v>3031</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="2">
@@ -7376,7 +7376,7 @@
         <v>215.543</v>
       </c>
       <c r="C1" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
@@ -7596,7 +7596,7 @@
         <v>715.537</v>
       </c>
       <c r="C1" t="n">
-        <v>99</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2">
@@ -7956,7 +7956,7 @@
         <v>608.271</v>
       </c>
       <c r="C1" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
@@ -8216,7 +8216,7 @@
         <v>561.447</v>
       </c>
       <c r="C1" t="n">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2">
@@ -8496,7 +8496,7 @@
         <v>558.563</v>
       </c>
       <c r="C1" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
@@ -8736,7 +8736,7 @@
         <v>680.576</v>
       </c>
       <c r="C1" t="n">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2">
@@ -9246,7 +9246,7 @@
         <v>657.717</v>
       </c>
       <c r="C1" t="n">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2">
@@ -9676,7 +9676,7 @@
         <v>1232.53</v>
       </c>
       <c r="C1" t="n">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2">
